--- a/UI/scenarios.xlsx
+++ b/UI/scenarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\Documents\TUD-3\BEP\Code\UI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c428646eea5c9a29/Documenten/GitHub/BEP/UI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C060E6C-6094-4259-AC0B-1EB1B512D464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6C060E6C-6094-4259-AC0B-1EB1B512D464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0F063A79-DF2D-4E24-B914-5421FBD27D24}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5A30CEC9-9B82-40CF-BCA9-07E6C4A54BED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>Scenario 1</t>
   </si>
@@ -89,15 +89,6 @@
   <si>
     <t>In dit scenario wordt het waterstof zo snel mogelijk verbruikt.</t>
   </si>
-  <si>
-    <t>Joe</t>
-  </si>
-  <si>
-    <t>Scenario 5</t>
-  </si>
-  <si>
-    <t>Test scenario</t>
-  </si>
 </sst>
 </file>
 
@@ -151,7 +142,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -169,7 +160,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -235,7 +226,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5002,7 +4993,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="569432944"/>
@@ -5064,7 +5055,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="569430320"/>
@@ -5106,7 +5097,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5143,7 +5134,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5157,7 +5148,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5219,7 +5210,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9986,7 +9977,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="572528640"/>
@@ -10048,7 +10039,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="572529624"/>
@@ -10090,7 +10081,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10127,7 +10118,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11332,7 +11323,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11630,8 +11621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187F0309-0B12-4E64-BDA8-E184F81177A5}">
   <dimension ref="A1:NC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="MF1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="MZ5" sqref="MZ5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="88" workbookViewId="0">
+      <selection activeCell="D34" sqref="A29:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19257,69 +19248,24 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>20</v>
-      </c>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
+      <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="D34">
-        <v>5</v>
-      </c>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
     </row>
   </sheetData>
